--- a/campaign/Bristol Road West Lawn Sign List sorted.xlsx
+++ b/campaign/Bristol Road West Lawn Sign List sorted.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="10635" activeTab="2"/>
@@ -1453,8 +1453,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2086,7 +2086,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="78DC78"/>
+        <a:sysClr val="window" lastClr="7DE17D"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2153,6 +2153,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2187,6 +2188,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2362,7 +2364,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G129"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2370,7 +2372,7 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
@@ -2382,7 +2384,7 @@
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2405,7 +2407,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>271</v>
       </c>
@@ -2422,7 +2424,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>271</v>
       </c>
@@ -2439,7 +2441,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>271</v>
       </c>
@@ -2456,7 +2458,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>277</v>
       </c>
@@ -2473,7 +2475,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>277</v>
       </c>
@@ -2490,7 +2492,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>283</v>
       </c>
@@ -2507,7 +2509,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>283</v>
       </c>
@@ -2524,7 +2526,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>283</v>
       </c>
@@ -2541,7 +2543,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>287</v>
       </c>
@@ -2558,7 +2560,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>287</v>
       </c>
@@ -2575,7 +2577,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>293</v>
       </c>
@@ -2592,7 +2594,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>293</v>
       </c>
@@ -2609,7 +2611,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>307</v>
       </c>
@@ -2626,7 +2628,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>313</v>
       </c>
@@ -2643,7 +2645,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>313</v>
       </c>
@@ -2660,7 +2662,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>313</v>
       </c>
@@ -2677,7 +2679,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>313</v>
       </c>
@@ -2694,7 +2696,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>327</v>
       </c>
@@ -2711,7 +2713,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>327</v>
       </c>
@@ -2728,7 +2730,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>327</v>
       </c>
@@ -2745,7 +2747,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>327</v>
       </c>
@@ -2762,7 +2764,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>343</v>
       </c>
@@ -2779,7 +2781,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>343</v>
       </c>
@@ -2796,7 +2798,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>343</v>
       </c>
@@ -2813,7 +2815,7 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>347</v>
       </c>
@@ -2830,7 +2832,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>347</v>
       </c>
@@ -2847,7 +2849,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>353</v>
       </c>
@@ -2864,7 +2866,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>357</v>
       </c>
@@ -2881,7 +2883,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>363</v>
       </c>
@@ -2898,7 +2900,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>363</v>
       </c>
@@ -2915,7 +2917,7 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>373</v>
       </c>
@@ -2932,7 +2934,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>373</v>
       </c>
@@ -2949,7 +2951,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>373</v>
       </c>
@@ -2966,7 +2968,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>377</v>
       </c>
@@ -2983,7 +2985,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>377</v>
       </c>
@@ -3000,7 +3002,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>407</v>
       </c>
@@ -3017,7 +3019,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>407</v>
       </c>
@@ -3034,7 +3036,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>407</v>
       </c>
@@ -3051,7 +3053,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>411</v>
       </c>
@@ -3068,7 +3070,7 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>411</v>
       </c>
@@ -3085,7 +3087,7 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>411</v>
       </c>
@@ -3102,7 +3104,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>415</v>
       </c>
@@ -3119,7 +3121,7 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>415</v>
       </c>
@@ -3136,7 +3138,7 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>423</v>
       </c>
@@ -3153,7 +3155,7 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>423</v>
       </c>
@@ -3170,7 +3172,7 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>423</v>
       </c>
@@ -3187,7 +3189,7 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>423</v>
       </c>
@@ -3204,7 +3206,7 @@
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>423</v>
       </c>
@@ -3221,7 +3223,7 @@
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>423</v>
       </c>
@@ -3238,7 +3240,7 @@
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>423</v>
       </c>
@@ -3255,7 +3257,7 @@
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>427</v>
       </c>
@@ -3272,7 +3274,7 @@
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>431</v>
       </c>
@@ -3289,7 +3291,7 @@
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>431</v>
       </c>
@@ -3306,7 +3308,7 @@
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>435</v>
       </c>
@@ -3323,7 +3325,7 @@
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>435</v>
       </c>
@@ -3340,7 +3342,7 @@
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>463</v>
       </c>
@@ -3357,7 +3359,7 @@
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>463</v>
       </c>
@@ -3374,7 +3376,7 @@
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>465</v>
       </c>
@@ -3391,7 +3393,7 @@
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>465</v>
       </c>
@@ -3408,7 +3410,7 @@
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>467</v>
       </c>
@@ -3425,7 +3427,7 @@
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>467</v>
       </c>
@@ -3442,7 +3444,7 @@
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>467</v>
       </c>
@@ -3459,7 +3461,7 @@
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>469</v>
       </c>
@@ -3476,7 +3478,7 @@
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>471</v>
       </c>
@@ -3493,7 +3495,7 @@
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>471</v>
       </c>
@@ -3510,7 +3512,7 @@
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>471</v>
       </c>
@@ -3527,7 +3529,7 @@
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>473</v>
       </c>
@@ -3544,7 +3546,7 @@
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>475</v>
       </c>
@@ -3561,7 +3563,7 @@
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>475</v>
       </c>
@@ -3578,7 +3580,7 @@
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>475</v>
       </c>
@@ -3595,7 +3597,7 @@
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>475</v>
       </c>
@@ -3612,7 +3614,7 @@
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>479</v>
       </c>
@@ -3629,7 +3631,7 @@
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>479</v>
       </c>
@@ -3646,7 +3648,7 @@
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>479</v>
       </c>
@@ -3663,7 +3665,7 @@
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>479</v>
       </c>
@@ -3680,7 +3682,7 @@
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>481</v>
       </c>
@@ -3697,7 +3699,7 @@
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>483</v>
       </c>
@@ -3714,7 +3716,7 @@
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>485</v>
       </c>
@@ -3731,7 +3733,7 @@
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>485</v>
       </c>
@@ -3748,7 +3750,7 @@
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>485</v>
       </c>
@@ -3765,7 +3767,7 @@
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>485</v>
       </c>
@@ -3782,7 +3784,7 @@
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>485</v>
       </c>
@@ -3799,7 +3801,7 @@
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>485</v>
       </c>
@@ -3816,7 +3818,7 @@
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>485</v>
       </c>
@@ -3833,7 +3835,7 @@
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>485</v>
       </c>
@@ -3850,7 +3852,7 @@
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>485</v>
       </c>
@@ -3867,7 +3869,7 @@
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>485</v>
       </c>
@@ -3884,7 +3886,7 @@
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>585</v>
       </c>
@@ -3901,7 +3903,7 @@
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>585</v>
       </c>
@@ -3918,7 +3920,7 @@
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>597</v>
       </c>
@@ -3935,7 +3937,7 @@
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>597</v>
       </c>
@@ -3952,7 +3954,7 @@
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>605</v>
       </c>
@@ -3969,7 +3971,7 @@
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>605</v>
       </c>
@@ -3986,7 +3988,7 @@
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>605</v>
       </c>
@@ -4001,7 +4003,7 @@
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>605</v>
       </c>
@@ -4014,7 +4016,7 @@
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>605</v>
       </c>
@@ -4027,7 +4029,7 @@
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>609</v>
       </c>
@@ -4044,7 +4046,7 @@
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>609</v>
       </c>
@@ -4061,7 +4063,7 @@
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>609</v>
       </c>
@@ -4078,7 +4080,7 @@
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>613</v>
       </c>
@@ -4095,7 +4097,7 @@
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>613</v>
       </c>
@@ -4112,7 +4114,7 @@
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>613</v>
       </c>
@@ -4129,7 +4131,7 @@
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>613</v>
       </c>
@@ -4146,7 +4148,7 @@
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>621</v>
       </c>
@@ -4167,7 +4169,7 @@
       </c>
       <c r="G105" s="3"/>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>621</v>
       </c>
@@ -4188,7 +4190,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>629</v>
       </c>
@@ -4207,7 +4209,7 @@
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>629</v>
       </c>
@@ -4226,7 +4228,7 @@
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>629</v>
       </c>
@@ -4245,7 +4247,7 @@
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>629</v>
       </c>
@@ -4262,7 +4264,7 @@
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>665</v>
       </c>
@@ -4279,7 +4281,7 @@
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>669</v>
       </c>
@@ -4296,7 +4298,7 @@
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>669</v>
       </c>
@@ -4313,7 +4315,7 @@
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>669</v>
       </c>
@@ -4330,7 +4332,7 @@
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>669</v>
       </c>
@@ -4347,7 +4349,7 @@
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>673</v>
       </c>
@@ -4364,7 +4366,7 @@
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>673</v>
       </c>
@@ -4381,7 +4383,7 @@
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>673</v>
       </c>
@@ -4398,7 +4400,7 @@
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>681</v>
       </c>
@@ -4415,7 +4417,7 @@
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>685</v>
       </c>
@@ -4432,7 +4434,7 @@
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>685</v>
       </c>
@@ -4449,7 +4451,7 @@
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>689</v>
       </c>
@@ -4466,7 +4468,7 @@
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>689</v>
       </c>
@@ -4483,7 +4485,7 @@
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>693</v>
       </c>
@@ -4500,7 +4502,7 @@
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -4509,7 +4511,7 @@
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -4518,7 +4520,7 @@
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -4527,7 +4529,7 @@
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -4536,7 +4538,7 @@
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -4552,7 +4554,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G226"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -4560,7 +4562,7 @@
       <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
@@ -4572,7 +4574,7 @@
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4595,7 +4597,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>138</v>
       </c>
@@ -4612,7 +4614,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>138</v>
       </c>
@@ -4629,7 +4631,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>138</v>
       </c>
@@ -4646,7 +4648,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>138</v>
       </c>
@@ -4663,7 +4665,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>142</v>
       </c>
@@ -4680,7 +4682,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>142</v>
       </c>
@@ -4697,7 +4699,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>148</v>
       </c>
@@ -4714,7 +4716,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>148</v>
       </c>
@@ -4731,7 +4733,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>150</v>
       </c>
@@ -4748,7 +4750,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>150</v>
       </c>
@@ -4765,7 +4767,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>154</v>
       </c>
@@ -4782,7 +4784,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>154</v>
       </c>
@@ -4799,7 +4801,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>154</v>
       </c>
@@ -4816,7 +4818,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>154</v>
       </c>
@@ -4833,7 +4835,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>154</v>
       </c>
@@ -4850,7 +4852,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>162</v>
       </c>
@@ -4867,7 +4869,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>162</v>
       </c>
@@ -4884,7 +4886,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>162</v>
       </c>
@@ -4901,7 +4903,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>162</v>
       </c>
@@ -4918,7 +4920,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>220</v>
       </c>
@@ -4935,7 +4937,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>220</v>
       </c>
@@ -4952,7 +4954,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>220</v>
       </c>
@@ -4969,7 +4971,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>220</v>
       </c>
@@ -4986,7 +4988,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>220</v>
       </c>
@@ -5003,7 +5005,7 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>226</v>
       </c>
@@ -5020,7 +5022,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>226</v>
       </c>
@@ -5037,7 +5039,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>226</v>
       </c>
@@ -5054,7 +5056,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>226</v>
       </c>
@@ -5071,7 +5073,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>226</v>
       </c>
@@ -5088,7 +5090,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>226</v>
       </c>
@@ -5105,7 +5107,7 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>232</v>
       </c>
@@ -5122,7 +5124,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>232</v>
       </c>
@@ -5139,7 +5141,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>238</v>
       </c>
@@ -5156,7 +5158,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>238</v>
       </c>
@@ -5173,7 +5175,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>238</v>
       </c>
@@ -5190,7 +5192,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>238</v>
       </c>
@@ -5207,7 +5209,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>256</v>
       </c>
@@ -5224,7 +5226,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>274</v>
       </c>
@@ -5241,7 +5243,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>274</v>
       </c>
@@ -5258,7 +5260,7 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>280</v>
       </c>
@@ -5275,7 +5277,7 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>286</v>
       </c>
@@ -5292,7 +5294,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>286</v>
       </c>
@@ -5309,7 +5311,7 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>286</v>
       </c>
@@ -5326,7 +5328,7 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>286</v>
       </c>
@@ -5343,7 +5345,7 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>286</v>
       </c>
@@ -5360,7 +5362,7 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>292</v>
       </c>
@@ -5377,7 +5379,7 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>292</v>
       </c>
@@ -5394,7 +5396,7 @@
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>292</v>
       </c>
@@ -5411,7 +5413,7 @@
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>298</v>
       </c>
@@ -5428,7 +5430,7 @@
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>298</v>
       </c>
@@ -5445,7 +5447,7 @@
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>298</v>
       </c>
@@ -5462,7 +5464,7 @@
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>298</v>
       </c>
@@ -5479,7 +5481,7 @@
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>310</v>
       </c>
@@ -5496,7 +5498,7 @@
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>310</v>
       </c>
@@ -5513,7 +5515,7 @@
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>316</v>
       </c>
@@ -5530,7 +5532,7 @@
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>316</v>
       </c>
@@ -5547,7 +5549,7 @@
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>316</v>
       </c>
@@ -5564,7 +5566,7 @@
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>316</v>
       </c>
@@ -5581,7 +5583,7 @@
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>316</v>
       </c>
@@ -5598,7 +5600,7 @@
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>328</v>
       </c>
@@ -5615,7 +5617,7 @@
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>328</v>
       </c>
@@ -5632,7 +5634,7 @@
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>328</v>
       </c>
@@ -5649,7 +5651,7 @@
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>334</v>
       </c>
@@ -5666,7 +5668,7 @@
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>334</v>
       </c>
@@ -5683,7 +5685,7 @@
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>334</v>
       </c>
@@ -5700,7 +5702,7 @@
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>346</v>
       </c>
@@ -5717,7 +5719,7 @@
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>346</v>
       </c>
@@ -5734,7 +5736,7 @@
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>352</v>
       </c>
@@ -5751,7 +5753,7 @@
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>352</v>
       </c>
@@ -5768,7 +5770,7 @@
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>352</v>
       </c>
@@ -5785,7 +5787,7 @@
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>358</v>
       </c>
@@ -5802,7 +5804,7 @@
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>358</v>
       </c>
@@ -5819,7 +5821,7 @@
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>364</v>
       </c>
@@ -5836,7 +5838,7 @@
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>364</v>
       </c>
@@ -5853,7 +5855,7 @@
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>364</v>
       </c>
@@ -5870,7 +5872,7 @@
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>364</v>
       </c>
@@ -5887,7 +5889,7 @@
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>364</v>
       </c>
@@ -5904,7 +5906,7 @@
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>364</v>
       </c>
@@ -5921,7 +5923,7 @@
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>364</v>
       </c>
@@ -5938,7 +5940,7 @@
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>370</v>
       </c>
@@ -5955,7 +5957,7 @@
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>370</v>
       </c>
@@ -5972,7 +5974,7 @@
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>370</v>
       </c>
@@ -5989,7 +5991,7 @@
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>376</v>
       </c>
@@ -6006,7 +6008,7 @@
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>376</v>
       </c>
@@ -6023,7 +6025,7 @@
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>380</v>
       </c>
@@ -6040,7 +6042,7 @@
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>380</v>
       </c>
@@ -6057,7 +6059,7 @@
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>390</v>
       </c>
@@ -6074,7 +6076,7 @@
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>390</v>
       </c>
@@ -6091,7 +6093,7 @@
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>394</v>
       </c>
@@ -6108,7 +6110,7 @@
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>394</v>
       </c>
@@ -6125,7 +6127,7 @@
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>394</v>
       </c>
@@ -6142,7 +6144,7 @@
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>394</v>
       </c>
@@ -6159,7 +6161,7 @@
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>400</v>
       </c>
@@ -6176,7 +6178,7 @@
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>406</v>
       </c>
@@ -6193,7 +6195,7 @@
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>406</v>
       </c>
@@ -6210,7 +6212,7 @@
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>412</v>
       </c>
@@ -6227,7 +6229,7 @@
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>412</v>
       </c>
@@ -6244,7 +6246,7 @@
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>412</v>
       </c>
@@ -6261,7 +6263,7 @@
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>418</v>
       </c>
@@ -6278,7 +6280,7 @@
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>430</v>
       </c>
@@ -6295,7 +6297,7 @@
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>430</v>
       </c>
@@ -6312,7 +6314,7 @@
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>430</v>
       </c>
@@ -6329,7 +6331,7 @@
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>430</v>
       </c>
@@ -6346,7 +6348,7 @@
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>436</v>
       </c>
@@ -6363,7 +6365,7 @@
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>436</v>
       </c>
@@ -6380,7 +6382,7 @@
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>436</v>
       </c>
@@ -6397,7 +6399,7 @@
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>442</v>
       </c>
@@ -6414,7 +6416,7 @@
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>442</v>
       </c>
@@ -6431,7 +6433,7 @@
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>460</v>
       </c>
@@ -6448,7 +6450,7 @@
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>460</v>
       </c>
@@ -6465,7 +6467,7 @@
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>460</v>
       </c>
@@ -6482,7 +6484,7 @@
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>460</v>
       </c>
@@ -6499,7 +6501,7 @@
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>460</v>
       </c>
@@ -6516,7 +6518,7 @@
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>460</v>
       </c>
@@ -6533,7 +6535,7 @@
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>460</v>
       </c>
@@ -6550,7 +6552,7 @@
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>460</v>
       </c>
@@ -6567,7 +6569,7 @@
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>460</v>
       </c>
@@ -6584,7 +6586,7 @@
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>460</v>
       </c>
@@ -6601,7 +6603,7 @@
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>460</v>
       </c>
@@ -6618,7 +6620,7 @@
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>460</v>
       </c>
@@ -6635,7 +6637,7 @@
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>460</v>
       </c>
@@ -6652,7 +6654,7 @@
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>460</v>
       </c>
@@ -6669,7 +6671,7 @@
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>460</v>
       </c>
@@ -6686,7 +6688,7 @@
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>460</v>
       </c>
@@ -6703,7 +6705,7 @@
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>460</v>
       </c>
@@ -6720,7 +6722,7 @@
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>460</v>
       </c>
@@ -6737,7 +6739,7 @@
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>460</v>
       </c>
@@ -6754,7 +6756,7 @@
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>460</v>
       </c>
@@ -6771,7 +6773,7 @@
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>460</v>
       </c>
@@ -6788,7 +6790,7 @@
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>460</v>
       </c>
@@ -6805,7 +6807,7 @@
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>460</v>
       </c>
@@ -6822,7 +6824,7 @@
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>460</v>
       </c>
@@ -6839,7 +6841,7 @@
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>460</v>
       </c>
@@ -6856,7 +6858,7 @@
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>460</v>
       </c>
@@ -6873,7 +6875,7 @@
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>460</v>
       </c>
@@ -6890,7 +6892,7 @@
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>460</v>
       </c>
@@ -6907,7 +6909,7 @@
       <c r="F137" s="3"/>
       <c r="G137" s="3"/>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>460</v>
       </c>
@@ -6924,7 +6926,7 @@
       <c r="F138" s="3"/>
       <c r="G138" s="3"/>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>460</v>
       </c>
@@ -6941,7 +6943,7 @@
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>460</v>
       </c>
@@ -6958,7 +6960,7 @@
       <c r="F140" s="3"/>
       <c r="G140" s="3"/>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>460</v>
       </c>
@@ -6975,7 +6977,7 @@
       <c r="F141" s="3"/>
       <c r="G141" s="3"/>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>460</v>
       </c>
@@ -6992,7 +6994,7 @@
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>460</v>
       </c>
@@ -7009,7 +7011,7 @@
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>460</v>
       </c>
@@ -7026,7 +7028,7 @@
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>460</v>
       </c>
@@ -7043,7 +7045,7 @@
       <c r="F145" s="3"/>
       <c r="G145" s="3"/>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>460</v>
       </c>
@@ -7060,7 +7062,7 @@
       <c r="F146" s="3"/>
       <c r="G146" s="3"/>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>460</v>
       </c>
@@ -7077,7 +7079,7 @@
       <c r="F147" s="3"/>
       <c r="G147" s="3"/>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>460</v>
       </c>
@@ -7094,7 +7096,7 @@
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>460</v>
       </c>
@@ -7111,7 +7113,7 @@
       <c r="F149" s="3"/>
       <c r="G149" s="3"/>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>460</v>
       </c>
@@ -7128,7 +7130,7 @@
       <c r="F150" s="3"/>
       <c r="G150" s="3"/>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>460</v>
       </c>
@@ -7145,7 +7147,7 @@
       <c r="F151" s="3"/>
       <c r="G151" s="3"/>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>460</v>
       </c>
@@ -7162,7 +7164,7 @@
       <c r="F152" s="3"/>
       <c r="G152" s="3"/>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>460</v>
       </c>
@@ -7179,7 +7181,7 @@
       <c r="F153" s="3"/>
       <c r="G153" s="3"/>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>460</v>
       </c>
@@ -7196,7 +7198,7 @@
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>460</v>
       </c>
@@ -7213,7 +7215,7 @@
       <c r="F155" s="3"/>
       <c r="G155" s="3"/>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>460</v>
       </c>
@@ -7230,7 +7232,7 @@
       <c r="F156" s="3"/>
       <c r="G156" s="3"/>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>460</v>
       </c>
@@ -7247,7 +7249,7 @@
       <c r="F157" s="3"/>
       <c r="G157" s="3"/>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>460</v>
       </c>
@@ -7264,7 +7266,7 @@
       <c r="F158" s="3"/>
       <c r="G158" s="3"/>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>460</v>
       </c>
@@ -7281,7 +7283,7 @@
       <c r="F159" s="3"/>
       <c r="G159" s="3"/>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>460</v>
       </c>
@@ -7298,7 +7300,7 @@
       <c r="F160" s="3"/>
       <c r="G160" s="3"/>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>460</v>
       </c>
@@ -7315,7 +7317,7 @@
       <c r="F161" s="3"/>
       <c r="G161" s="3"/>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>460</v>
       </c>
@@ -7332,7 +7334,7 @@
       <c r="F162" s="3"/>
       <c r="G162" s="3"/>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>460</v>
       </c>
@@ -7349,7 +7351,7 @@
       <c r="F163" s="3"/>
       <c r="G163" s="3"/>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>460</v>
       </c>
@@ -7366,7 +7368,7 @@
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>460</v>
       </c>
@@ -7383,7 +7385,7 @@
       <c r="F165" s="3"/>
       <c r="G165" s="3"/>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>460</v>
       </c>
@@ -7400,7 +7402,7 @@
       <c r="F166" s="3"/>
       <c r="G166" s="3"/>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>460</v>
       </c>
@@ -7417,7 +7419,7 @@
       <c r="F167" s="3"/>
       <c r="G167" s="3"/>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>460</v>
       </c>
@@ -7434,7 +7436,7 @@
       <c r="F168" s="3"/>
       <c r="G168" s="3"/>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>460</v>
       </c>
@@ -7451,7 +7453,7 @@
       <c r="F169" s="3"/>
       <c r="G169" s="3"/>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>460</v>
       </c>
@@ -7468,7 +7470,7 @@
       <c r="F170" s="3"/>
       <c r="G170" s="3"/>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>460</v>
       </c>
@@ -7485,7 +7487,7 @@
       <c r="F171" s="3"/>
       <c r="G171" s="3"/>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>460</v>
       </c>
@@ -7502,7 +7504,7 @@
       <c r="F172" s="3"/>
       <c r="G172" s="3"/>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>460</v>
       </c>
@@ -7519,7 +7521,7 @@
       <c r="F173" s="3"/>
       <c r="G173" s="3"/>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>460</v>
       </c>
@@ -7536,7 +7538,7 @@
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>460</v>
       </c>
@@ -7553,7 +7555,7 @@
       <c r="F175" s="3"/>
       <c r="G175" s="3"/>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>460</v>
       </c>
@@ -7570,7 +7572,7 @@
       <c r="F176" s="3"/>
       <c r="G176" s="3"/>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>460</v>
       </c>
@@ -7587,7 +7589,7 @@
       <c r="F177" s="3"/>
       <c r="G177" s="3"/>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>460</v>
       </c>
@@ -7604,7 +7606,7 @@
       <c r="F178" s="3"/>
       <c r="G178" s="3"/>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
         <v>460</v>
       </c>
@@ -7621,7 +7623,7 @@
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
         <v>460</v>
       </c>
@@ -7638,7 +7640,7 @@
       <c r="F180" s="3"/>
       <c r="G180" s="3"/>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>460</v>
       </c>
@@ -7655,7 +7657,7 @@
       <c r="F181" s="3"/>
       <c r="G181" s="3"/>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>460</v>
       </c>
@@ -7672,7 +7674,7 @@
       <c r="F182" s="3"/>
       <c r="G182" s="3"/>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>460</v>
       </c>
@@ -7689,7 +7691,7 @@
       <c r="F183" s="3"/>
       <c r="G183" s="3"/>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <v>460</v>
       </c>
@@ -7706,7 +7708,7 @@
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <v>460</v>
       </c>
@@ -7723,7 +7725,7 @@
       <c r="F185" s="3"/>
       <c r="G185" s="3"/>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>460</v>
       </c>
@@ -7740,7 +7742,7 @@
       <c r="F186" s="3"/>
       <c r="G186" s="3"/>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
         <v>460</v>
       </c>
@@ -7757,7 +7759,7 @@
       <c r="F187" s="3"/>
       <c r="G187" s="3"/>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
         <v>460</v>
       </c>
@@ -7774,7 +7776,7 @@
       <c r="F188" s="3"/>
       <c r="G188" s="3"/>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
         <v>460</v>
       </c>
@@ -7791,7 +7793,7 @@
       <c r="F189" s="3"/>
       <c r="G189" s="3"/>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
         <v>460</v>
       </c>
@@ -7808,7 +7810,7 @@
       <c r="F190" s="3"/>
       <c r="G190" s="3"/>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
         <v>460</v>
       </c>
@@ -7825,7 +7827,7 @@
       <c r="F191" s="3"/>
       <c r="G191" s="3"/>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
         <v>460</v>
       </c>
@@ -7842,7 +7844,7 @@
       <c r="F192" s="3"/>
       <c r="G192" s="3"/>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
         <v>460</v>
       </c>
@@ -7859,7 +7861,7 @@
       <c r="F193" s="3"/>
       <c r="G193" s="3"/>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
         <v>460</v>
       </c>
@@ -7876,7 +7878,7 @@
       <c r="F194" s="3"/>
       <c r="G194" s="3"/>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
         <v>460</v>
       </c>
@@ -7893,7 +7895,7 @@
       <c r="F195" s="3"/>
       <c r="G195" s="3"/>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
         <v>582</v>
       </c>
@@ -7910,7 +7912,7 @@
       <c r="F196" s="3"/>
       <c r="G196" s="3"/>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
         <v>582</v>
       </c>
@@ -7927,7 +7929,7 @@
       <c r="F197" s="3"/>
       <c r="G197" s="3"/>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
         <v>586</v>
       </c>
@@ -7944,7 +7946,7 @@
       <c r="F198" s="3"/>
       <c r="G198" s="3"/>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
         <v>586</v>
       </c>
@@ -7961,7 +7963,7 @@
       <c r="F199" s="3"/>
       <c r="G199" s="3"/>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
         <v>586</v>
       </c>
@@ -7978,7 +7980,7 @@
       <c r="F200" s="3"/>
       <c r="G200" s="3"/>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
         <v>586</v>
       </c>
@@ -7995,7 +7997,7 @@
       <c r="F201" s="3"/>
       <c r="G201" s="3"/>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
         <v>586</v>
       </c>
@@ -8012,7 +8014,7 @@
       <c r="F202" s="3"/>
       <c r="G202" s="3"/>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
         <v>586</v>
       </c>
@@ -8029,7 +8031,7 @@
       <c r="F203" s="3"/>
       <c r="G203" s="3"/>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
         <v>602</v>
       </c>
@@ -8046,7 +8048,7 @@
       <c r="F204" s="3"/>
       <c r="G204" s="3"/>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
         <v>602</v>
       </c>
@@ -8063,7 +8065,7 @@
       <c r="F205" s="3"/>
       <c r="G205" s="3"/>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="3">
         <v>602</v>
       </c>
@@ -8080,7 +8082,7 @@
       <c r="F206" s="3"/>
       <c r="G206" s="3"/>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
         <v>602</v>
       </c>
@@ -8097,7 +8099,7 @@
       <c r="F207" s="3"/>
       <c r="G207" s="3"/>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
         <v>606</v>
       </c>
@@ -8114,7 +8116,7 @@
       <c r="F208" s="3"/>
       <c r="G208" s="3"/>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="3">
         <v>606</v>
       </c>
@@ -8131,7 +8133,7 @@
       <c r="F209" s="3"/>
       <c r="G209" s="3"/>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="3">
         <v>618</v>
       </c>
@@ -8150,7 +8152,7 @@
       <c r="F210" s="3"/>
       <c r="G210" s="3"/>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
         <v>618</v>
       </c>
@@ -8169,7 +8171,7 @@
       <c r="F211" s="3"/>
       <c r="G211" s="3"/>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="3">
         <v>618</v>
       </c>
@@ -8188,7 +8190,7 @@
       <c r="F212" s="3"/>
       <c r="G212" s="3"/>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="3">
         <v>622</v>
       </c>
@@ -8205,7 +8207,7 @@
       <c r="F213" s="3"/>
       <c r="G213" s="3"/>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="3">
         <v>622</v>
       </c>
@@ -8222,7 +8224,7 @@
       <c r="F214" s="3"/>
       <c r="G214" s="3"/>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="3">
         <v>626</v>
       </c>
@@ -8241,7 +8243,7 @@
       <c r="F215" s="3"/>
       <c r="G215" s="3"/>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="3">
         <v>626</v>
       </c>
@@ -8260,7 +8262,7 @@
       <c r="F216" s="3"/>
       <c r="G216" s="3"/>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="3">
         <v>630</v>
       </c>
@@ -8281,7 +8283,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
         <v>630</v>
       </c>
@@ -8302,7 +8304,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="3">
         <v>630</v>
       </c>
@@ -8323,7 +8325,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="3">
         <v>630</v>
       </c>
@@ -8344,7 +8346,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="3">
         <v>630</v>
       </c>
@@ -8365,7 +8367,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="222" spans="1:7">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="3">
         <v>634</v>
       </c>
@@ -8384,7 +8386,7 @@
       <c r="F222" s="3"/>
       <c r="G222" s="3"/>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="3">
         <v>634</v>
       </c>
@@ -8403,7 +8405,7 @@
       <c r="F223" s="3"/>
       <c r="G223" s="3"/>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="3">
         <v>634</v>
       </c>
@@ -8422,7 +8424,7 @@
       <c r="F224" s="3"/>
       <c r="G224" s="3"/>
     </row>
-    <row r="225" spans="1:7">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="3">
         <v>634</v>
       </c>
@@ -8441,7 +8443,7 @@
       <c r="F225" s="3"/>
       <c r="G225" s="3"/>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="3">
         <v>642</v>
       </c>
@@ -8467,15 +8469,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G355"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A1048576"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
@@ -8486,7 +8488,7 @@
     <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -8509,7 +8511,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>693</v>
       </c>
@@ -8526,7 +8528,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>689</v>
       </c>
@@ -8543,7 +8545,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>689</v>
       </c>
@@ -8560,7 +8562,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>685</v>
       </c>
@@ -8577,7 +8579,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>685</v>
       </c>
@@ -8594,7 +8596,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>681</v>
       </c>
@@ -8611,7 +8613,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>673</v>
       </c>
@@ -8628,7 +8630,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>673</v>
       </c>
@@ -8645,7 +8647,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>673</v>
       </c>
@@ -8662,7 +8664,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>669</v>
       </c>
@@ -8679,7 +8681,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>669</v>
       </c>
@@ -8696,7 +8698,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>669</v>
       </c>
@@ -8713,7 +8715,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>669</v>
       </c>
@@ -8730,7 +8732,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>665</v>
       </c>
@@ -8747,7 +8749,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>642</v>
       </c>
@@ -8766,7 +8768,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>634</v>
       </c>
@@ -8785,7 +8787,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>634</v>
       </c>
@@ -8804,7 +8806,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>634</v>
       </c>
@@ -8823,7 +8825,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>634</v>
       </c>
@@ -8842,7 +8844,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>630</v>
       </c>
@@ -8863,7 +8865,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>630</v>
       </c>
@@ -8884,7 +8886,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>630</v>
       </c>
@@ -8905,7 +8907,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>630</v>
       </c>
@@ -8926,7 +8928,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>630</v>
       </c>
@@ -8947,7 +8949,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>629</v>
       </c>
@@ -8966,7 +8968,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>629</v>
       </c>
@@ -8985,7 +8987,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>629</v>
       </c>
@@ -9004,7 +9006,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>629</v>
       </c>
@@ -9021,7 +9023,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>626</v>
       </c>
@@ -9040,7 +9042,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>626</v>
       </c>
@@ -9059,7 +9061,7 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>622</v>
       </c>
@@ -9076,7 +9078,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>622</v>
       </c>
@@ -9093,7 +9095,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>621</v>
       </c>
@@ -9114,7 +9116,7 @@
       </c>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>621</v>
       </c>
@@ -9135,7 +9137,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>618</v>
       </c>
@@ -9154,7 +9156,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>618</v>
       </c>
@@ -9173,7 +9175,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>618</v>
       </c>
@@ -9192,7 +9194,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>613</v>
       </c>
@@ -9209,7 +9211,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>613</v>
       </c>
@@ -9226,7 +9228,7 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>613</v>
       </c>
@@ -9243,7 +9245,7 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>613</v>
       </c>
@@ -9260,7 +9262,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>609</v>
       </c>
@@ -9277,7 +9279,7 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>609</v>
       </c>
@@ -9294,7 +9296,7 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>609</v>
       </c>
@@ -9311,7 +9313,7 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>606</v>
       </c>
@@ -9328,7 +9330,7 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>606</v>
       </c>
@@ -9345,7 +9347,7 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>605</v>
       </c>
@@ -9362,7 +9364,7 @@
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>605</v>
       </c>
@@ -9379,7 +9381,7 @@
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>605</v>
       </c>
@@ -9394,7 +9396,7 @@
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>605</v>
       </c>
@@ -9407,7 +9409,7 @@
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>605</v>
       </c>
@@ -9420,7 +9422,7 @@
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>602</v>
       </c>
@@ -9437,7 +9439,7 @@
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>602</v>
       </c>
@@ -9454,7 +9456,7 @@
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>602</v>
       </c>
@@ -9471,7 +9473,7 @@
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>602</v>
       </c>
@@ -9488,7 +9490,7 @@
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>597</v>
       </c>
@@ -9505,7 +9507,7 @@
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>597</v>
       </c>
@@ -9522,7 +9524,7 @@
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>586</v>
       </c>
@@ -9539,7 +9541,7 @@
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>586</v>
       </c>
@@ -9556,7 +9558,7 @@
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>586</v>
       </c>
@@ -9573,7 +9575,7 @@
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>586</v>
       </c>
@@ -9590,7 +9592,7 @@
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>586</v>
       </c>
@@ -9607,7 +9609,7 @@
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>586</v>
       </c>
@@ -9624,7 +9626,7 @@
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>585</v>
       </c>
@@ -9641,7 +9643,7 @@
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>585</v>
       </c>
@@ -9658,7 +9660,7 @@
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>582</v>
       </c>
@@ -9675,7 +9677,7 @@
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>582</v>
       </c>
@@ -9692,7 +9694,7 @@
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>485</v>
       </c>
@@ -9709,7 +9711,7 @@
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>485</v>
       </c>
@@ -9726,7 +9728,7 @@
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>485</v>
       </c>
@@ -9743,7 +9745,7 @@
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>485</v>
       </c>
@@ -9760,7 +9762,7 @@
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>485</v>
       </c>
@@ -9777,7 +9779,7 @@
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>485</v>
       </c>
@@ -9794,7 +9796,7 @@
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>485</v>
       </c>
@@ -9811,7 +9813,7 @@
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>485</v>
       </c>
@@ -9828,7 +9830,7 @@
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>485</v>
       </c>
@@ -9845,7 +9847,7 @@
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>485</v>
       </c>
@@ -9862,7 +9864,7 @@
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>483</v>
       </c>
@@ -9879,7 +9881,7 @@
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>481</v>
       </c>
@@ -9896,7 +9898,7 @@
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>479</v>
       </c>
@@ -9913,7 +9915,7 @@
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>479</v>
       </c>
@@ -9930,7 +9932,7 @@
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>479</v>
       </c>
@@ -9947,7 +9949,7 @@
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>479</v>
       </c>
@@ -9964,7 +9966,7 @@
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>475</v>
       </c>
@@ -9981,7 +9983,7 @@
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>475</v>
       </c>
@@ -9998,7 +10000,7 @@
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>475</v>
       </c>
@@ -10015,7 +10017,7 @@
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>475</v>
       </c>
@@ -10032,7 +10034,7 @@
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>473</v>
       </c>
@@ -10049,7 +10051,7 @@
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>471</v>
       </c>
@@ -10066,7 +10068,7 @@
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>471</v>
       </c>
@@ -10083,7 +10085,7 @@
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>471</v>
       </c>
@@ -10100,7 +10102,7 @@
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>469</v>
       </c>
@@ -10117,7 +10119,7 @@
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>467</v>
       </c>
@@ -10134,7 +10136,7 @@
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>467</v>
       </c>
@@ -10151,7 +10153,7 @@
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>467</v>
       </c>
@@ -10168,7 +10170,7 @@
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>465</v>
       </c>
@@ -10185,7 +10187,7 @@
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>465</v>
       </c>
@@ -10202,7 +10204,7 @@
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>463</v>
       </c>
@@ -10219,7 +10221,7 @@
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>463</v>
       </c>
@@ -10236,7 +10238,7 @@
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>460</v>
       </c>
@@ -10253,7 +10255,7 @@
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>460</v>
       </c>
@@ -10270,7 +10272,7 @@
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>460</v>
       </c>
@@ -10287,7 +10289,7 @@
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>460</v>
       </c>
@@ -10304,7 +10306,7 @@
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>460</v>
       </c>
@@ -10321,7 +10323,7 @@
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>460</v>
       </c>
@@ -10338,7 +10340,7 @@
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>460</v>
       </c>
@@ -10355,7 +10357,7 @@
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>460</v>
       </c>
@@ -10372,7 +10374,7 @@
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>460</v>
       </c>
@@ -10389,7 +10391,7 @@
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>460</v>
       </c>
@@ -10406,7 +10408,7 @@
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>460</v>
       </c>
@@ -10423,7 +10425,7 @@
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>460</v>
       </c>
@@ -10440,7 +10442,7 @@
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>460</v>
       </c>
@@ -10457,7 +10459,7 @@
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>460</v>
       </c>
@@ -10474,7 +10476,7 @@
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>460</v>
       </c>
@@ -10491,7 +10493,7 @@
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>460</v>
       </c>
@@ -10508,7 +10510,7 @@
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>460</v>
       </c>
@@ -10525,7 +10527,7 @@
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>460</v>
       </c>
@@ -10542,7 +10544,7 @@
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>460</v>
       </c>
@@ -10559,7 +10561,7 @@
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>460</v>
       </c>
@@ -10576,7 +10578,7 @@
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>460</v>
       </c>
@@ -10593,7 +10595,7 @@
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>460</v>
       </c>
@@ -10610,7 +10612,7 @@
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>460</v>
       </c>
@@ -10627,7 +10629,7 @@
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>460</v>
       </c>
@@ -10644,7 +10646,7 @@
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
     </row>
-    <row r="125" spans="1:7" s="2" customFormat="1">
+    <row r="125" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>460</v>
       </c>
@@ -10661,7 +10663,7 @@
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
     </row>
-    <row r="126" spans="1:7" s="2" customFormat="1">
+    <row r="126" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>460</v>
       </c>
@@ -10678,7 +10680,7 @@
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
     </row>
-    <row r="127" spans="1:7" s="2" customFormat="1">
+    <row r="127" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>460</v>
       </c>
@@ -10695,7 +10697,7 @@
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
     </row>
-    <row r="128" spans="1:7" s="2" customFormat="1">
+    <row r="128" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>460</v>
       </c>
@@ -10712,7 +10714,7 @@
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
     </row>
-    <row r="129" spans="1:7" s="2" customFormat="1">
+    <row r="129" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>460</v>
       </c>
@@ -10729,7 +10731,7 @@
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>460</v>
       </c>
@@ -10746,7 +10748,7 @@
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>460</v>
       </c>
@@ -10763,7 +10765,7 @@
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>460</v>
       </c>
@@ -10780,7 +10782,7 @@
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>460</v>
       </c>
@@ -10797,7 +10799,7 @@
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>460</v>
       </c>
@@ -10814,7 +10816,7 @@
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>460</v>
       </c>
@@ -10831,7 +10833,7 @@
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>460</v>
       </c>
@@ -10848,7 +10850,7 @@
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>460</v>
       </c>
@@ -10865,7 +10867,7 @@
       <c r="F137" s="3"/>
       <c r="G137" s="3"/>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>460</v>
       </c>
@@ -10882,7 +10884,7 @@
       <c r="F138" s="3"/>
       <c r="G138" s="3"/>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>460</v>
       </c>
@@ -10899,7 +10901,7 @@
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>460</v>
       </c>
@@ -10916,7 +10918,7 @@
       <c r="F140" s="3"/>
       <c r="G140" s="3"/>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>460</v>
       </c>
@@ -10933,7 +10935,7 @@
       <c r="F141" s="3"/>
       <c r="G141" s="3"/>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>460</v>
       </c>
@@ -10950,7 +10952,7 @@
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>460</v>
       </c>
@@ -10967,7 +10969,7 @@
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>460</v>
       </c>
@@ -10984,7 +10986,7 @@
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>460</v>
       </c>
@@ -11001,7 +11003,7 @@
       <c r="F145" s="3"/>
       <c r="G145" s="3"/>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>460</v>
       </c>
@@ -11018,7 +11020,7 @@
       <c r="F146" s="3"/>
       <c r="G146" s="3"/>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>460</v>
       </c>
@@ -11035,7 +11037,7 @@
       <c r="F147" s="3"/>
       <c r="G147" s="3"/>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>460</v>
       </c>
@@ -11052,7 +11054,7 @@
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>460</v>
       </c>
@@ -11069,7 +11071,7 @@
       <c r="F149" s="3"/>
       <c r="G149" s="3"/>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>460</v>
       </c>
@@ -11086,7 +11088,7 @@
       <c r="F150" s="3"/>
       <c r="G150" s="3"/>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>460</v>
       </c>
@@ -11103,7 +11105,7 @@
       <c r="F151" s="3"/>
       <c r="G151" s="3"/>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>460</v>
       </c>
@@ -11120,7 +11122,7 @@
       <c r="F152" s="3"/>
       <c r="G152" s="3"/>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>460</v>
       </c>
@@ -11137,7 +11139,7 @@
       <c r="F153" s="3"/>
       <c r="G153" s="3"/>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>460</v>
       </c>
@@ -11154,7 +11156,7 @@
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>460</v>
       </c>
@@ -11171,7 +11173,7 @@
       <c r="F155" s="3"/>
       <c r="G155" s="3"/>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>460</v>
       </c>
@@ -11188,7 +11190,7 @@
       <c r="F156" s="3"/>
       <c r="G156" s="3"/>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>460</v>
       </c>
@@ -11205,7 +11207,7 @@
       <c r="F157" s="3"/>
       <c r="G157" s="3"/>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>460</v>
       </c>
@@ -11222,7 +11224,7 @@
       <c r="F158" s="3"/>
       <c r="G158" s="3"/>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>460</v>
       </c>
@@ -11239,7 +11241,7 @@
       <c r="F159" s="3"/>
       <c r="G159" s="3"/>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>460</v>
       </c>
@@ -11256,7 +11258,7 @@
       <c r="F160" s="3"/>
       <c r="G160" s="3"/>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>460</v>
       </c>
@@ -11273,7 +11275,7 @@
       <c r="F161" s="3"/>
       <c r="G161" s="3"/>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>460</v>
       </c>
@@ -11290,7 +11292,7 @@
       <c r="F162" s="3"/>
       <c r="G162" s="3"/>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>460</v>
       </c>
@@ -11307,7 +11309,7 @@
       <c r="F163" s="3"/>
       <c r="G163" s="3"/>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>460</v>
       </c>
@@ -11324,7 +11326,7 @@
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>460</v>
       </c>
@@ -11341,7 +11343,7 @@
       <c r="F165" s="3"/>
       <c r="G165" s="3"/>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>460</v>
       </c>
@@ -11358,7 +11360,7 @@
       <c r="F166" s="3"/>
       <c r="G166" s="3"/>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>460</v>
       </c>
@@ -11375,7 +11377,7 @@
       <c r="F167" s="3"/>
       <c r="G167" s="3"/>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>460</v>
       </c>
@@ -11392,7 +11394,7 @@
       <c r="F168" s="3"/>
       <c r="G168" s="3"/>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>460</v>
       </c>
@@ -11409,7 +11411,7 @@
       <c r="F169" s="3"/>
       <c r="G169" s="3"/>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>460</v>
       </c>
@@ -11426,7 +11428,7 @@
       <c r="F170" s="3"/>
       <c r="G170" s="3"/>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>460</v>
       </c>
@@ -11443,7 +11445,7 @@
       <c r="F171" s="3"/>
       <c r="G171" s="3"/>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>460</v>
       </c>
@@ -11460,7 +11462,7 @@
       <c r="F172" s="3"/>
       <c r="G172" s="3"/>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>460</v>
       </c>
@@ -11477,7 +11479,7 @@
       <c r="F173" s="3"/>
       <c r="G173" s="3"/>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>460</v>
       </c>
@@ -11494,7 +11496,7 @@
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>460</v>
       </c>
@@ -11511,7 +11513,7 @@
       <c r="F175" s="3"/>
       <c r="G175" s="3"/>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>460</v>
       </c>
@@ -11528,7 +11530,7 @@
       <c r="F176" s="3"/>
       <c r="G176" s="3"/>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>460</v>
       </c>
@@ -11545,7 +11547,7 @@
       <c r="F177" s="3"/>
       <c r="G177" s="3"/>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>460</v>
       </c>
@@ -11562,7 +11564,7 @@
       <c r="F178" s="3"/>
       <c r="G178" s="3"/>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
         <v>460</v>
       </c>
@@ -11579,7 +11581,7 @@
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
         <v>460</v>
       </c>
@@ -11596,7 +11598,7 @@
       <c r="F180" s="3"/>
       <c r="G180" s="3"/>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>460</v>
       </c>
@@ -11613,7 +11615,7 @@
       <c r="F181" s="3"/>
       <c r="G181" s="3"/>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>460</v>
       </c>
@@ -11630,7 +11632,7 @@
       <c r="F182" s="3"/>
       <c r="G182" s="3"/>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>460</v>
       </c>
@@ -11647,7 +11649,7 @@
       <c r="F183" s="3"/>
       <c r="G183" s="3"/>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <v>460</v>
       </c>
@@ -11664,7 +11666,7 @@
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <v>460</v>
       </c>
@@ -11681,7 +11683,7 @@
       <c r="F185" s="3"/>
       <c r="G185" s="3"/>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>460</v>
       </c>
@@ -11698,7 +11700,7 @@
       <c r="F186" s="3"/>
       <c r="G186" s="3"/>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
         <v>442</v>
       </c>
@@ -11715,7 +11717,7 @@
       <c r="F187" s="3"/>
       <c r="G187" s="3"/>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
         <v>442</v>
       </c>
@@ -11732,7 +11734,7 @@
       <c r="F188" s="3"/>
       <c r="G188" s="3"/>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
         <v>436</v>
       </c>
@@ -11749,7 +11751,7 @@
       <c r="F189" s="3"/>
       <c r="G189" s="3"/>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
         <v>436</v>
       </c>
@@ -11766,7 +11768,7 @@
       <c r="F190" s="3"/>
       <c r="G190" s="3"/>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
         <v>436</v>
       </c>
@@ -11783,7 +11785,7 @@
       <c r="F191" s="3"/>
       <c r="G191" s="3"/>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
         <v>435</v>
       </c>
@@ -11800,7 +11802,7 @@
       <c r="F192" s="3"/>
       <c r="G192" s="3"/>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
         <v>435</v>
       </c>
@@ -11817,7 +11819,7 @@
       <c r="F193" s="3"/>
       <c r="G193" s="3"/>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
         <v>431</v>
       </c>
@@ -11834,7 +11836,7 @@
       <c r="F194" s="3"/>
       <c r="G194" s="3"/>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
         <v>431</v>
       </c>
@@ -11851,7 +11853,7 @@
       <c r="F195" s="3"/>
       <c r="G195" s="3"/>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
         <v>430</v>
       </c>
@@ -11868,7 +11870,7 @@
       <c r="F196" s="3"/>
       <c r="G196" s="3"/>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
         <v>430</v>
       </c>
@@ -11885,7 +11887,7 @@
       <c r="F197" s="3"/>
       <c r="G197" s="3"/>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
         <v>430</v>
       </c>
@@ -11902,7 +11904,7 @@
       <c r="F198" s="3"/>
       <c r="G198" s="3"/>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
         <v>430</v>
       </c>
@@ -11919,7 +11921,7 @@
       <c r="F199" s="3"/>
       <c r="G199" s="3"/>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
         <v>427</v>
       </c>
@@ -11936,7 +11938,7 @@
       <c r="F200" s="3"/>
       <c r="G200" s="3"/>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
         <v>423</v>
       </c>
@@ -11953,7 +11955,7 @@
       <c r="F201" s="3"/>
       <c r="G201" s="3"/>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
         <v>423</v>
       </c>
@@ -11970,7 +11972,7 @@
       <c r="F202" s="3"/>
       <c r="G202" s="3"/>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
         <v>423</v>
       </c>
@@ -11987,7 +11989,7 @@
       <c r="F203" s="3"/>
       <c r="G203" s="3"/>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
         <v>423</v>
       </c>
@@ -12004,7 +12006,7 @@
       <c r="F204" s="3"/>
       <c r="G204" s="3"/>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
         <v>423</v>
       </c>
@@ -12021,7 +12023,7 @@
       <c r="F205" s="3"/>
       <c r="G205" s="3"/>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="3">
         <v>423</v>
       </c>
@@ -12038,7 +12040,7 @@
       <c r="F206" s="3"/>
       <c r="G206" s="3"/>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
         <v>423</v>
       </c>
@@ -12055,7 +12057,7 @@
       <c r="F207" s="3"/>
       <c r="G207" s="3"/>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
         <v>418</v>
       </c>
@@ -12072,7 +12074,7 @@
       <c r="F208" s="3"/>
       <c r="G208" s="3"/>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="3">
         <v>415</v>
       </c>
@@ -12089,7 +12091,7 @@
       <c r="F209" s="3"/>
       <c r="G209" s="3"/>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="3">
         <v>415</v>
       </c>
@@ -12106,7 +12108,7 @@
       <c r="F210" s="3"/>
       <c r="G210" s="3"/>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
         <v>412</v>
       </c>
@@ -12123,7 +12125,7 @@
       <c r="F211" s="3"/>
       <c r="G211" s="3"/>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="3">
         <v>412</v>
       </c>
@@ -12140,7 +12142,7 @@
       <c r="F212" s="3"/>
       <c r="G212" s="3"/>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="3">
         <v>412</v>
       </c>
@@ -12157,7 +12159,7 @@
       <c r="F213" s="3"/>
       <c r="G213" s="3"/>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="3">
         <v>411</v>
       </c>
@@ -12174,7 +12176,7 @@
       <c r="F214" s="3"/>
       <c r="G214" s="3"/>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="3">
         <v>411</v>
       </c>
@@ -12191,7 +12193,7 @@
       <c r="F215" s="3"/>
       <c r="G215" s="3"/>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="3">
         <v>411</v>
       </c>
@@ -12208,7 +12210,7 @@
       <c r="F216" s="3"/>
       <c r="G216" s="3"/>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="3">
         <v>407</v>
       </c>
@@ -12225,7 +12227,7 @@
       <c r="F217" s="3"/>
       <c r="G217" s="3"/>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
         <v>407</v>
       </c>
@@ -12242,7 +12244,7 @@
       <c r="F218" s="3"/>
       <c r="G218" s="3"/>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="3">
         <v>407</v>
       </c>
@@ -12259,7 +12261,7 @@
       <c r="F219" s="3"/>
       <c r="G219" s="3"/>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="3">
         <v>406</v>
       </c>
@@ -12276,7 +12278,7 @@
       <c r="F220" s="3"/>
       <c r="G220" s="3"/>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="3">
         <v>406</v>
       </c>
@@ -12293,7 +12295,7 @@
       <c r="F221" s="3"/>
       <c r="G221" s="3"/>
     </row>
-    <row r="222" spans="1:7">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="3">
         <v>400</v>
       </c>
@@ -12310,7 +12312,7 @@
       <c r="F222" s="3"/>
       <c r="G222" s="3"/>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="3">
         <v>394</v>
       </c>
@@ -12327,7 +12329,7 @@
       <c r="F223" s="3"/>
       <c r="G223" s="3"/>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="3">
         <v>394</v>
       </c>
@@ -12344,7 +12346,7 @@
       <c r="F224" s="3"/>
       <c r="G224" s="3"/>
     </row>
-    <row r="225" spans="1:7">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="3">
         <v>394</v>
       </c>
@@ -12361,7 +12363,7 @@
       <c r="F225" s="3"/>
       <c r="G225" s="3"/>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="3">
         <v>394</v>
       </c>
@@ -12378,7 +12380,7 @@
       <c r="F226" s="3"/>
       <c r="G226" s="3"/>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="3">
         <v>390</v>
       </c>
@@ -12395,7 +12397,7 @@
       <c r="F227" s="3"/>
       <c r="G227" s="3"/>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="3">
         <v>390</v>
       </c>
@@ -12412,7 +12414,7 @@
       <c r="F228" s="3"/>
       <c r="G228" s="3"/>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="3">
         <v>380</v>
       </c>
@@ -12429,7 +12431,7 @@
       <c r="F229" s="3"/>
       <c r="G229" s="3"/>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="3">
         <v>380</v>
       </c>
@@ -12446,7 +12448,7 @@
       <c r="F230" s="3"/>
       <c r="G230" s="3"/>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="3">
         <v>377</v>
       </c>
@@ -12463,7 +12465,7 @@
       <c r="F231" s="3"/>
       <c r="G231" s="3"/>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="3">
         <v>377</v>
       </c>
@@ -12480,7 +12482,7 @@
       <c r="F232" s="3"/>
       <c r="G232" s="3"/>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="3">
         <v>376</v>
       </c>
@@ -12497,7 +12499,7 @@
       <c r="F233" s="3"/>
       <c r="G233" s="3"/>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="3">
         <v>376</v>
       </c>
@@ -12514,7 +12516,7 @@
       <c r="F234" s="3"/>
       <c r="G234" s="3"/>
     </row>
-    <row r="235" spans="1:7">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="3">
         <v>373</v>
       </c>
@@ -12531,7 +12533,7 @@
       <c r="F235" s="3"/>
       <c r="G235" s="3"/>
     </row>
-    <row r="236" spans="1:7">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="3">
         <v>373</v>
       </c>
@@ -12548,7 +12550,7 @@
       <c r="F236" s="3"/>
       <c r="G236" s="3"/>
     </row>
-    <row r="237" spans="1:7">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="3">
         <v>373</v>
       </c>
@@ -12565,7 +12567,7 @@
       <c r="F237" s="3"/>
       <c r="G237" s="3"/>
     </row>
-    <row r="238" spans="1:7">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="3">
         <v>370</v>
       </c>
@@ -12582,7 +12584,7 @@
       <c r="F238" s="3"/>
       <c r="G238" s="3"/>
     </row>
-    <row r="239" spans="1:7">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="3">
         <v>370</v>
       </c>
@@ -12599,7 +12601,7 @@
       <c r="F239" s="3"/>
       <c r="G239" s="3"/>
     </row>
-    <row r="240" spans="1:7">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="3">
         <v>370</v>
       </c>
@@ -12616,7 +12618,7 @@
       <c r="F240" s="3"/>
       <c r="G240" s="3"/>
     </row>
-    <row r="241" spans="1:7">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="3">
         <v>364</v>
       </c>
@@ -12633,7 +12635,7 @@
       <c r="F241" s="3"/>
       <c r="G241" s="3"/>
     </row>
-    <row r="242" spans="1:7">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="3">
         <v>364</v>
       </c>
@@ -12650,7 +12652,7 @@
       <c r="F242" s="3"/>
       <c r="G242" s="3"/>
     </row>
-    <row r="243" spans="1:7">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="3">
         <v>364</v>
       </c>
@@ -12667,7 +12669,7 @@
       <c r="F243" s="3"/>
       <c r="G243" s="3"/>
     </row>
-    <row r="244" spans="1:7">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="3">
         <v>364</v>
       </c>
@@ -12684,7 +12686,7 @@
       <c r="F244" s="3"/>
       <c r="G244" s="3"/>
     </row>
-    <row r="245" spans="1:7">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="3">
         <v>364</v>
       </c>
@@ -12701,7 +12703,7 @@
       <c r="F245" s="3"/>
       <c r="G245" s="3"/>
     </row>
-    <row r="246" spans="1:7">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="3">
         <v>364</v>
       </c>
@@ -12718,7 +12720,7 @@
       <c r="F246" s="3"/>
       <c r="G246" s="3"/>
     </row>
-    <row r="247" spans="1:7">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="3">
         <v>364</v>
       </c>
@@ -12735,7 +12737,7 @@
       <c r="F247" s="3"/>
       <c r="G247" s="3"/>
     </row>
-    <row r="248" spans="1:7">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="3">
         <v>363</v>
       </c>
@@ -12752,7 +12754,7 @@
       <c r="F248" s="3"/>
       <c r="G248" s="3"/>
     </row>
-    <row r="249" spans="1:7">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="3">
         <v>363</v>
       </c>
@@ -12769,7 +12771,7 @@
       <c r="F249" s="3"/>
       <c r="G249" s="3"/>
     </row>
-    <row r="250" spans="1:7">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="3">
         <v>358</v>
       </c>
@@ -12786,7 +12788,7 @@
       <c r="F250" s="3"/>
       <c r="G250" s="3"/>
     </row>
-    <row r="251" spans="1:7">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="3">
         <v>358</v>
       </c>
@@ -12803,7 +12805,7 @@
       <c r="F251" s="3"/>
       <c r="G251" s="3"/>
     </row>
-    <row r="252" spans="1:7">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="3">
         <v>357</v>
       </c>
@@ -12820,7 +12822,7 @@
       <c r="F252" s="3"/>
       <c r="G252" s="3"/>
     </row>
-    <row r="253" spans="1:7">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="3">
         <v>353</v>
       </c>
@@ -12837,7 +12839,7 @@
       <c r="F253" s="3"/>
       <c r="G253" s="3"/>
     </row>
-    <row r="254" spans="1:7">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="3">
         <v>352</v>
       </c>
@@ -12854,7 +12856,7 @@
       <c r="F254" s="3"/>
       <c r="G254" s="3"/>
     </row>
-    <row r="255" spans="1:7">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="3">
         <v>352</v>
       </c>
@@ -12871,7 +12873,7 @@
       <c r="F255" s="3"/>
       <c r="G255" s="3"/>
     </row>
-    <row r="256" spans="1:7">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="3">
         <v>352</v>
       </c>
@@ -12888,7 +12890,7 @@
       <c r="F256" s="3"/>
       <c r="G256" s="3"/>
     </row>
-    <row r="257" spans="1:7">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="3">
         <v>347</v>
       </c>
@@ -12905,7 +12907,7 @@
       <c r="F257" s="3"/>
       <c r="G257" s="3"/>
     </row>
-    <row r="258" spans="1:7">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="3">
         <v>347</v>
       </c>
@@ -12922,7 +12924,7 @@
       <c r="F258" s="3"/>
       <c r="G258" s="3"/>
     </row>
-    <row r="259" spans="1:7">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="3">
         <v>346</v>
       </c>
@@ -12939,7 +12941,7 @@
       <c r="F259" s="3"/>
       <c r="G259" s="3"/>
     </row>
-    <row r="260" spans="1:7">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="3">
         <v>346</v>
       </c>
@@ -12956,7 +12958,7 @@
       <c r="F260" s="3"/>
       <c r="G260" s="3"/>
     </row>
-    <row r="261" spans="1:7">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="3">
         <v>343</v>
       </c>
@@ -12973,7 +12975,7 @@
       <c r="F261" s="3"/>
       <c r="G261" s="3"/>
     </row>
-    <row r="262" spans="1:7">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="3">
         <v>343</v>
       </c>
@@ -12990,7 +12992,7 @@
       <c r="F262" s="3"/>
       <c r="G262" s="3"/>
     </row>
-    <row r="263" spans="1:7">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="3">
         <v>343</v>
       </c>
@@ -13007,7 +13009,7 @@
       <c r="F263" s="3"/>
       <c r="G263" s="3"/>
     </row>
-    <row r="264" spans="1:7">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="3">
         <v>334</v>
       </c>
@@ -13024,7 +13026,7 @@
       <c r="F264" s="3"/>
       <c r="G264" s="3"/>
     </row>
-    <row r="265" spans="1:7">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="3">
         <v>334</v>
       </c>
@@ -13041,7 +13043,7 @@
       <c r="F265" s="3"/>
       <c r="G265" s="3"/>
     </row>
-    <row r="266" spans="1:7">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="3">
         <v>334</v>
       </c>
@@ -13058,7 +13060,7 @@
       <c r="F266" s="3"/>
       <c r="G266" s="3"/>
     </row>
-    <row r="267" spans="1:7">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="3">
         <v>328</v>
       </c>
@@ -13075,7 +13077,7 @@
       <c r="F267" s="3"/>
       <c r="G267" s="3"/>
     </row>
-    <row r="268" spans="1:7">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="3">
         <v>328</v>
       </c>
@@ -13092,7 +13094,7 @@
       <c r="F268" s="3"/>
       <c r="G268" s="3"/>
     </row>
-    <row r="269" spans="1:7">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="3">
         <v>328</v>
       </c>
@@ -13109,7 +13111,7 @@
       <c r="F269" s="3"/>
       <c r="G269" s="3"/>
     </row>
-    <row r="270" spans="1:7">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="3">
         <v>327</v>
       </c>
@@ -13126,7 +13128,7 @@
       <c r="F270" s="3"/>
       <c r="G270" s="3"/>
     </row>
-    <row r="271" spans="1:7">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="3">
         <v>327</v>
       </c>
@@ -13143,7 +13145,7 @@
       <c r="F271" s="3"/>
       <c r="G271" s="3"/>
     </row>
-    <row r="272" spans="1:7">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="3">
         <v>327</v>
       </c>
@@ -13160,7 +13162,7 @@
       <c r="F272" s="3"/>
       <c r="G272" s="3"/>
     </row>
-    <row r="273" spans="1:7">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="3">
         <v>327</v>
       </c>
@@ -13177,7 +13179,7 @@
       <c r="F273" s="3"/>
       <c r="G273" s="3"/>
     </row>
-    <row r="274" spans="1:7">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="3">
         <v>316</v>
       </c>
@@ -13194,7 +13196,7 @@
       <c r="F274" s="3"/>
       <c r="G274" s="3"/>
     </row>
-    <row r="275" spans="1:7">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="3">
         <v>316</v>
       </c>
@@ -13211,7 +13213,7 @@
       <c r="F275" s="3"/>
       <c r="G275" s="3"/>
     </row>
-    <row r="276" spans="1:7">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="3">
         <v>316</v>
       </c>
@@ -13228,7 +13230,7 @@
       <c r="F276" s="3"/>
       <c r="G276" s="3"/>
     </row>
-    <row r="277" spans="1:7">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="3">
         <v>316</v>
       </c>
@@ -13245,7 +13247,7 @@
       <c r="F277" s="3"/>
       <c r="G277" s="3"/>
     </row>
-    <row r="278" spans="1:7">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="3">
         <v>316</v>
       </c>
@@ -13262,7 +13264,7 @@
       <c r="F278" s="3"/>
       <c r="G278" s="3"/>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="3">
         <v>313</v>
       </c>
@@ -13279,7 +13281,7 @@
       <c r="F279" s="3"/>
       <c r="G279" s="3"/>
     </row>
-    <row r="280" spans="1:7">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="3">
         <v>313</v>
       </c>
@@ -13296,7 +13298,7 @@
       <c r="F280" s="3"/>
       <c r="G280" s="3"/>
     </row>
-    <row r="281" spans="1:7">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="3">
         <v>313</v>
       </c>
@@ -13313,7 +13315,7 @@
       <c r="F281" s="3"/>
       <c r="G281" s="3"/>
     </row>
-    <row r="282" spans="1:7">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="3">
         <v>313</v>
       </c>
@@ -13330,7 +13332,7 @@
       <c r="F282" s="3"/>
       <c r="G282" s="3"/>
     </row>
-    <row r="283" spans="1:7">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="3">
         <v>310</v>
       </c>
@@ -13347,7 +13349,7 @@
       <c r="F283" s="3"/>
       <c r="G283" s="3"/>
     </row>
-    <row r="284" spans="1:7">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="3">
         <v>310</v>
       </c>
@@ -13364,7 +13366,7 @@
       <c r="F284" s="3"/>
       <c r="G284" s="3"/>
     </row>
-    <row r="285" spans="1:7">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="3">
         <v>307</v>
       </c>
@@ -13381,7 +13383,7 @@
       <c r="F285" s="3"/>
       <c r="G285" s="3"/>
     </row>
-    <row r="286" spans="1:7">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="3">
         <v>298</v>
       </c>
@@ -13398,7 +13400,7 @@
       <c r="F286" s="3"/>
       <c r="G286" s="3"/>
     </row>
-    <row r="287" spans="1:7">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="3">
         <v>298</v>
       </c>
@@ -13415,7 +13417,7 @@
       <c r="F287" s="3"/>
       <c r="G287" s="3"/>
     </row>
-    <row r="288" spans="1:7">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="3">
         <v>298</v>
       </c>
@@ -13432,7 +13434,7 @@
       <c r="F288" s="3"/>
       <c r="G288" s="3"/>
     </row>
-    <row r="289" spans="1:7">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="3">
         <v>298</v>
       </c>
@@ -13449,7 +13451,7 @@
       <c r="F289" s="3"/>
       <c r="G289" s="3"/>
     </row>
-    <row r="290" spans="1:7">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="3">
         <v>293</v>
       </c>
@@ -13466,7 +13468,7 @@
       <c r="F290" s="3"/>
       <c r="G290" s="3"/>
     </row>
-    <row r="291" spans="1:7">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="3">
         <v>293</v>
       </c>
@@ -13483,7 +13485,7 @@
       <c r="F291" s="3"/>
       <c r="G291" s="3"/>
     </row>
-    <row r="292" spans="1:7">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="3">
         <v>292</v>
       </c>
@@ -13500,7 +13502,7 @@
       <c r="F292" s="3"/>
       <c r="G292" s="3"/>
     </row>
-    <row r="293" spans="1:7">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="3">
         <v>292</v>
       </c>
@@ -13517,7 +13519,7 @@
       <c r="F293" s="3"/>
       <c r="G293" s="3"/>
     </row>
-    <row r="294" spans="1:7">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="3">
         <v>292</v>
       </c>
@@ -13534,7 +13536,7 @@
       <c r="F294" s="3"/>
       <c r="G294" s="3"/>
     </row>
-    <row r="295" spans="1:7">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="3">
         <v>287</v>
       </c>
@@ -13551,7 +13553,7 @@
       <c r="F295" s="3"/>
       <c r="G295" s="3"/>
     </row>
-    <row r="296" spans="1:7">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="3">
         <v>287</v>
       </c>
@@ -13568,7 +13570,7 @@
       <c r="F296" s="3"/>
       <c r="G296" s="3"/>
     </row>
-    <row r="297" spans="1:7">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="3">
         <v>286</v>
       </c>
@@ -13585,7 +13587,7 @@
       <c r="F297" s="3"/>
       <c r="G297" s="3"/>
     </row>
-    <row r="298" spans="1:7">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="3">
         <v>286</v>
       </c>
@@ -13602,7 +13604,7 @@
       <c r="F298" s="3"/>
       <c r="G298" s="3"/>
     </row>
-    <row r="299" spans="1:7">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="3">
         <v>286</v>
       </c>
@@ -13619,7 +13621,7 @@
       <c r="F299" s="3"/>
       <c r="G299" s="3"/>
     </row>
-    <row r="300" spans="1:7">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="3">
         <v>286</v>
       </c>
@@ -13636,7 +13638,7 @@
       <c r="F300" s="3"/>
       <c r="G300" s="3"/>
     </row>
-    <row r="301" spans="1:7">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="3">
         <v>286</v>
       </c>
@@ -13653,7 +13655,7 @@
       <c r="F301" s="3"/>
       <c r="G301" s="3"/>
     </row>
-    <row r="302" spans="1:7">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="3">
         <v>283</v>
       </c>
@@ -13670,7 +13672,7 @@
       <c r="F302" s="3"/>
       <c r="G302" s="3"/>
     </row>
-    <row r="303" spans="1:7">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="3">
         <v>283</v>
       </c>
@@ -13687,7 +13689,7 @@
       <c r="F303" s="3"/>
       <c r="G303" s="3"/>
     </row>
-    <row r="304" spans="1:7">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="3">
         <v>283</v>
       </c>
@@ -13704,7 +13706,7 @@
       <c r="F304" s="3"/>
       <c r="G304" s="3"/>
     </row>
-    <row r="305" spans="1:7">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="3">
         <v>280</v>
       </c>
@@ -13721,7 +13723,7 @@
       <c r="F305" s="3"/>
       <c r="G305" s="3"/>
     </row>
-    <row r="306" spans="1:7">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="3">
         <v>277</v>
       </c>
@@ -13738,7 +13740,7 @@
       <c r="F306" s="3"/>
       <c r="G306" s="3"/>
     </row>
-    <row r="307" spans="1:7">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="3">
         <v>277</v>
       </c>
@@ -13755,7 +13757,7 @@
       <c r="F307" s="3"/>
       <c r="G307" s="3"/>
     </row>
-    <row r="308" spans="1:7">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="3">
         <v>274</v>
       </c>
@@ -13772,7 +13774,7 @@
       <c r="F308" s="3"/>
       <c r="G308" s="3"/>
     </row>
-    <row r="309" spans="1:7">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="3">
         <v>274</v>
       </c>
@@ -13789,7 +13791,7 @@
       <c r="F309" s="3"/>
       <c r="G309" s="3"/>
     </row>
-    <row r="310" spans="1:7">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="3">
         <v>271</v>
       </c>
@@ -13806,7 +13808,7 @@
       <c r="F310" s="3"/>
       <c r="G310" s="3"/>
     </row>
-    <row r="311" spans="1:7">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="3">
         <v>271</v>
       </c>
@@ -13823,7 +13825,7 @@
       <c r="F311" s="3"/>
       <c r="G311" s="3"/>
     </row>
-    <row r="312" spans="1:7">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="3">
         <v>271</v>
       </c>
@@ -13840,7 +13842,7 @@
       <c r="F312" s="3"/>
       <c r="G312" s="3"/>
     </row>
-    <row r="313" spans="1:7">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="3">
         <v>256</v>
       </c>
@@ -13857,7 +13859,7 @@
       <c r="F313" s="3"/>
       <c r="G313" s="3"/>
     </row>
-    <row r="314" spans="1:7">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="3">
         <v>238</v>
       </c>
@@ -13874,7 +13876,7 @@
       <c r="F314" s="3"/>
       <c r="G314" s="3"/>
     </row>
-    <row r="315" spans="1:7">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="3">
         <v>238</v>
       </c>
@@ -13891,7 +13893,7 @@
       <c r="F315" s="3"/>
       <c r="G315" s="3"/>
     </row>
-    <row r="316" spans="1:7">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="3">
         <v>238</v>
       </c>
@@ -13908,7 +13910,7 @@
       <c r="F316" s="3"/>
       <c r="G316" s="3"/>
     </row>
-    <row r="317" spans="1:7">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="3">
         <v>238</v>
       </c>
@@ -13925,7 +13927,7 @@
       <c r="F317" s="3"/>
       <c r="G317" s="3"/>
     </row>
-    <row r="318" spans="1:7">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="3">
         <v>232</v>
       </c>
@@ -13942,7 +13944,7 @@
       <c r="F318" s="3"/>
       <c r="G318" s="3"/>
     </row>
-    <row r="319" spans="1:7">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="3">
         <v>232</v>
       </c>
@@ -13959,7 +13961,7 @@
       <c r="F319" s="3"/>
       <c r="G319" s="3"/>
     </row>
-    <row r="320" spans="1:7">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="3">
         <v>226</v>
       </c>
@@ -13976,7 +13978,7 @@
       <c r="F320" s="3"/>
       <c r="G320" s="3"/>
     </row>
-    <row r="321" spans="1:7">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="3">
         <v>226</v>
       </c>
@@ -13993,7 +13995,7 @@
       <c r="F321" s="3"/>
       <c r="G321" s="3"/>
     </row>
-    <row r="322" spans="1:7">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="3">
         <v>226</v>
       </c>
@@ -14010,7 +14012,7 @@
       <c r="F322" s="3"/>
       <c r="G322" s="3"/>
     </row>
-    <row r="323" spans="1:7">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="3">
         <v>226</v>
       </c>
@@ -14027,7 +14029,7 @@
       <c r="F323" s="3"/>
       <c r="G323" s="3"/>
     </row>
-    <row r="324" spans="1:7">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="3">
         <v>226</v>
       </c>
@@ -14044,7 +14046,7 @@
       <c r="F324" s="3"/>
       <c r="G324" s="3"/>
     </row>
-    <row r="325" spans="1:7">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="3">
         <v>226</v>
       </c>
@@ -14061,7 +14063,7 @@
       <c r="F325" s="3"/>
       <c r="G325" s="3"/>
     </row>
-    <row r="326" spans="1:7">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="3">
         <v>220</v>
       </c>
@@ -14078,7 +14080,7 @@
       <c r="F326" s="3"/>
       <c r="G326" s="3"/>
     </row>
-    <row r="327" spans="1:7">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="3">
         <v>220</v>
       </c>
@@ -14095,7 +14097,7 @@
       <c r="F327" s="3"/>
       <c r="G327" s="3"/>
     </row>
-    <row r="328" spans="1:7">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="3">
         <v>220</v>
       </c>
@@ -14112,7 +14114,7 @@
       <c r="F328" s="3"/>
       <c r="G328" s="3"/>
     </row>
-    <row r="329" spans="1:7">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="3">
         <v>220</v>
       </c>
@@ -14129,7 +14131,7 @@
       <c r="F329" s="3"/>
       <c r="G329" s="3"/>
     </row>
-    <row r="330" spans="1:7">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="3">
         <v>220</v>
       </c>
@@ -14146,7 +14148,7 @@
       <c r="F330" s="3"/>
       <c r="G330" s="3"/>
     </row>
-    <row r="331" spans="1:7">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="3">
         <v>162</v>
       </c>
@@ -14163,7 +14165,7 @@
       <c r="F331" s="3"/>
       <c r="G331" s="3"/>
     </row>
-    <row r="332" spans="1:7">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="3">
         <v>162</v>
       </c>
@@ -14180,7 +14182,7 @@
       <c r="F332" s="3"/>
       <c r="G332" s="3"/>
     </row>
-    <row r="333" spans="1:7">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="3">
         <v>162</v>
       </c>
@@ -14197,7 +14199,7 @@
       <c r="F333" s="3"/>
       <c r="G333" s="3"/>
     </row>
-    <row r="334" spans="1:7">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="3">
         <v>162</v>
       </c>
@@ -14214,7 +14216,7 @@
       <c r="F334" s="3"/>
       <c r="G334" s="3"/>
     </row>
-    <row r="335" spans="1:7">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="3">
         <v>154</v>
       </c>
@@ -14231,7 +14233,7 @@
       <c r="F335" s="3"/>
       <c r="G335" s="3"/>
     </row>
-    <row r="336" spans="1:7">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="3">
         <v>154</v>
       </c>
@@ -14248,7 +14250,7 @@
       <c r="F336" s="3"/>
       <c r="G336" s="3"/>
     </row>
-    <row r="337" spans="1:7">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="3">
         <v>154</v>
       </c>
@@ -14265,7 +14267,7 @@
       <c r="F337" s="3"/>
       <c r="G337" s="3"/>
     </row>
-    <row r="338" spans="1:7">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="3">
         <v>154</v>
       </c>
@@ -14282,7 +14284,7 @@
       <c r="F338" s="3"/>
       <c r="G338" s="3"/>
     </row>
-    <row r="339" spans="1:7">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="3">
         <v>154</v>
       </c>
@@ -14299,7 +14301,7 @@
       <c r="F339" s="3"/>
       <c r="G339" s="3"/>
     </row>
-    <row r="340" spans="1:7">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="3">
         <v>150</v>
       </c>
@@ -14316,7 +14318,7 @@
       <c r="F340" s="3"/>
       <c r="G340" s="3"/>
     </row>
-    <row r="341" spans="1:7">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="3">
         <v>150</v>
       </c>
@@ -14333,7 +14335,7 @@
       <c r="F341" s="3"/>
       <c r="G341" s="3"/>
     </row>
-    <row r="342" spans="1:7">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="3">
         <v>148</v>
       </c>
@@ -14350,7 +14352,7 @@
       <c r="F342" s="3"/>
       <c r="G342" s="3"/>
     </row>
-    <row r="343" spans="1:7">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="3">
         <v>148</v>
       </c>
@@ -14367,7 +14369,7 @@
       <c r="F343" s="3"/>
       <c r="G343" s="3"/>
     </row>
-    <row r="344" spans="1:7">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="3">
         <v>142</v>
       </c>
@@ -14384,7 +14386,7 @@
       <c r="F344" s="3"/>
       <c r="G344" s="3"/>
     </row>
-    <row r="345" spans="1:7">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="3">
         <v>142</v>
       </c>
@@ -14401,7 +14403,7 @@
       <c r="F345" s="3"/>
       <c r="G345" s="3"/>
     </row>
-    <row r="346" spans="1:7">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="3">
         <v>138</v>
       </c>
@@ -14418,7 +14420,7 @@
       <c r="F346" s="3"/>
       <c r="G346" s="3"/>
     </row>
-    <row r="347" spans="1:7">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="3">
         <v>138</v>
       </c>
@@ -14435,7 +14437,7 @@
       <c r="F347" s="3"/>
       <c r="G347" s="3"/>
     </row>
-    <row r="348" spans="1:7">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="3">
         <v>138</v>
       </c>
@@ -14452,7 +14454,7 @@
       <c r="F348" s="3"/>
       <c r="G348" s="3"/>
     </row>
-    <row r="349" spans="1:7">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="3">
         <v>138</v>
       </c>
@@ -14469,7 +14471,7 @@
       <c r="F349" s="3"/>
       <c r="G349" s="3"/>
     </row>
-    <row r="350" spans="1:7">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="3"/>
       <c r="B350" s="3"/>
       <c r="C350" s="3"/>
@@ -14478,7 +14480,7 @@
       <c r="F350" s="3"/>
       <c r="G350" s="3"/>
     </row>
-    <row r="351" spans="1:7">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="3"/>
       <c r="B351" s="3"/>
       <c r="C351" s="3"/>
@@ -14487,7 +14489,7 @@
       <c r="F351" s="3"/>
       <c r="G351" s="3"/>
     </row>
-    <row r="352" spans="1:7">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="3"/>
       <c r="B352" s="3"/>
       <c r="C352" s="3"/>
@@ -14496,7 +14498,7 @@
       <c r="F352" s="3"/>
       <c r="G352" s="3"/>
     </row>
-    <row r="353" spans="1:7">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="3"/>
       <c r="B353" s="3"/>
       <c r="C353" s="3"/>
@@ -14505,7 +14507,7 @@
       <c r="F353" s="3"/>
       <c r="G353" s="3"/>
     </row>
-    <row r="354" spans="1:7">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="3"/>
       <c r="B354" s="3"/>
       <c r="C354" s="3"/>
@@ -14514,39 +14516,39 @@
       <c r="F354" s="3"/>
       <c r="G354" s="3"/>
     </row>
-    <row r="355" spans="1:7">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B355" s="1"/>
     </row>
   </sheetData>
   <sortState ref="A2:G355">
     <sortCondition descending="1" ref="A1"/>
   </sortState>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup scale="72" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
+  <pageSetup scale="72" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
